--- a/biology/Mycologie/Infundibulicybe_squamulosa/Infundibulicybe_squamulosa.xlsx
+++ b/biology/Mycologie/Infundibulicybe_squamulosa/Infundibulicybe_squamulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Infundibulicybe squamulosa est une espèce de champignons basidiomycètes de la famille des Tricholomataceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau jusqu'à 10 cm de diamètre, déprimé, brun roussâtre à marge un peu côtelée.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts et clairières d'Europe.
 </t>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe squamulosa (Pers.) Harmaja, 2003[1].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus squamulosus Pers., 1801[1].
-Infundibulicybe squamulosa a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe squamulosa (Pers.) Harmaja, 2003.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus squamulosus Pers., 1801.
+Infundibulicybe squamulosa a pour synonymes :
 Agaricus squamulosus Pers., 1801
 Clitocybe sinopicoides Peck, 1912
 Clitocybe subsquamata Murrill, 1915
@@ -612,6 +630,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
